--- a/DataInTime/espirometrias.xlsx
+++ b/DataInTime/espirometrias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AndroidStudio\DataInTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4B93286-9BF4-46C9-9E0F-BB22FED518AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C1A1F3-957C-4BCC-A4C9-19085C265669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{8680FAAB-A6EC-4382-BCD3-479E3568DF66}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8680FAAB-A6EC-4382-BCD3-479E3568DF66}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <t>FEV1 ml</t>
   </si>
   <si>
-    <t xml:space="preserve">FEV1 </t>
+    <t>FEV1 %</t>
   </si>
 </sst>
 </file>
@@ -108,13 +108,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,16 +431,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B3474F-C1BF-4F7C-8238-2071379BD4F8}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.21875" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.21875" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.21875" style="3" customWidth="1"/>
@@ -452,7 +454,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -478,8 +480,8 @@
       <c r="A2" s="2">
         <v>45260</v>
       </c>
-      <c r="B2" s="3">
-        <v>69.13</v>
+      <c r="B2" s="6">
+        <v>0.69130000000000003</v>
       </c>
       <c r="C2" s="3">
         <v>3410</v>
@@ -504,8 +506,8 @@
       <c r="A3" s="2">
         <v>45173</v>
       </c>
-      <c r="B3" s="3">
-        <v>72.28</v>
+      <c r="B3" s="6">
+        <v>0.7228</v>
       </c>
       <c r="C3" s="3">
         <v>3440</v>
@@ -530,8 +532,8 @@
       <c r="A4" s="2">
         <v>45146</v>
       </c>
-      <c r="B4" s="3">
-        <v>71.91</v>
+      <c r="B4" s="6">
+        <v>0.71909999999999996</v>
       </c>
       <c r="C4" s="3">
         <v>3440</v>
@@ -556,8 +558,8 @@
       <c r="A5" s="2">
         <v>45048</v>
       </c>
-      <c r="B5" s="3">
-        <v>72.98</v>
+      <c r="B5" s="6">
+        <v>0.7298</v>
       </c>
       <c r="C5" s="3">
         <v>3740</v>
@@ -582,8 +584,8 @@
       <c r="A6" s="2">
         <v>45015</v>
       </c>
-      <c r="B6" s="3">
-        <v>70.569999999999993</v>
+      <c r="B6" s="6">
+        <v>0.70569999999999999</v>
       </c>
       <c r="C6" s="3">
         <v>3580</v>
@@ -608,8 +610,8 @@
       <c r="A7" s="2">
         <v>44924</v>
       </c>
-      <c r="B7" s="3">
-        <v>73.16</v>
+      <c r="B7" s="6">
+        <v>0.73160000000000003</v>
       </c>
       <c r="C7" s="3">
         <v>3740</v>
@@ -634,8 +636,8 @@
       <c r="A8" s="2">
         <v>44831</v>
       </c>
-      <c r="B8" s="3">
-        <v>74.98</v>
+      <c r="B8" s="6">
+        <v>0.74980000000000002</v>
       </c>
       <c r="C8" s="3">
         <v>3780</v>
@@ -660,8 +662,8 @@
       <c r="A9" s="2">
         <v>44733</v>
       </c>
-      <c r="B9" s="3">
-        <v>74.08</v>
+      <c r="B9" s="6">
+        <v>0.74080000000000001</v>
       </c>
       <c r="C9" s="3">
         <v>3860</v>
@@ -686,8 +688,8 @@
       <c r="A10" s="2">
         <v>44641</v>
       </c>
-      <c r="B10" s="3">
-        <v>77.760000000000005</v>
+      <c r="B10" s="6">
+        <v>0.77759999999999996</v>
       </c>
       <c r="C10" s="3">
         <v>3920</v>
@@ -712,8 +714,8 @@
       <c r="A11" s="2">
         <v>44552</v>
       </c>
-      <c r="B11" s="3">
-        <v>78.61</v>
+      <c r="B11" s="6">
+        <v>0.78610000000000002</v>
       </c>
       <c r="C11" s="3">
         <v>4050</v>
@@ -738,8 +740,8 @@
       <c r="A12" s="2">
         <v>44461</v>
       </c>
-      <c r="B12" s="3">
-        <v>75.099999999999994</v>
+      <c r="B12" s="6">
+        <v>0.751</v>
       </c>
       <c r="C12" s="3">
         <v>4030</v>
@@ -764,8 +766,8 @@
       <c r="A13" s="2">
         <v>44368</v>
       </c>
-      <c r="B13" s="3">
-        <v>76.790000000000006</v>
+      <c r="B13" s="6">
+        <v>0.76790000000000003</v>
       </c>
       <c r="C13" s="3">
         <v>3960</v>
@@ -784,6 +786,416 @@
       </c>
       <c r="H13" s="4">
         <v>0.93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>44307</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.76119999999999999</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5260</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3180</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.76629999999999998</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5090</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3180</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>44235</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3960</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5230</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>44132</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.78449999999999998</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3720</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4740</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3080</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.74160000000000004</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3820</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5140</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2820</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>44005</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.75729999999999997</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3960</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5230</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3080</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3940</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5220</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3040</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.79779999999999995</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4170</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5220</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3730</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5420</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3850</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.7601</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3690</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4860</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2980</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>43822</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.78710000000000002</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4060</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5160</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3630</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3630</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>43718</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.79310000000000003</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3550</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4480</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3880</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3560</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2620</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>43662</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3600</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4490</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="G28" s="3">
+        <v>3320</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>43676</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0.77580000000000005</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3690</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4750</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3130</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
